--- a/output/1Y_P11_1VAL-D.xlsx
+++ b/output/1Y_P11_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>9.6988</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>1031.0554</v>
       </c>
-      <c r="G2" s="1">
-        <v>1031.0554</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.034799999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>9.6988</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.034799999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>10.0658</v>
       </c>
+      <c r="E3" s="1">
+        <v>1031.0554</v>
+      </c>
       <c r="F3" s="1">
         <v>993.463</v>
       </c>
-      <c r="G3" s="1">
-        <v>2024.5184</v>
-      </c>
       <c r="H3" s="1">
-        <v>20272.515</v>
+        <v>10324.4731</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9.8789</v>
+        <v>10324.4731</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>9.6988</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20272.515</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0163</v>
+        <v>0.0324</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>11.2848</v>
       </c>
+      <c r="E4" s="1">
+        <v>2024.5184</v>
+      </c>
       <c r="F4" s="1">
         <v>886.1477</v>
       </c>
-      <c r="G4" s="1">
-        <v>2910.6661</v>
-      </c>
       <c r="H4" s="1">
-        <v>32676.0113</v>
+        <v>22727.8509</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>10.3069</v>
+        <v>22727.8509</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>9.8789</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>32676.0113</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0794</v>
+        <v>0.1183</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>11.1341</v>
       </c>
+      <c r="E5" s="1">
+        <v>2910.6661</v>
+      </c>
       <c r="F5" s="1">
         <v>898.1417</v>
       </c>
-      <c r="G5" s="1">
-        <v>3808.8079</v>
-      </c>
       <c r="H5" s="1">
-        <v>42187.8797</v>
+        <v>32239.7024</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>10.502</v>
+        <v>32239.7024</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>10.3069</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42187.8797</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0114</v>
+        <v>-0.0149</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>10.9064</v>
       </c>
+      <c r="E6" s="1">
+        <v>3808.8079</v>
+      </c>
       <c r="F6" s="1">
         <v>916.8928</v>
       </c>
-      <c r="G6" s="1">
-        <v>4725.7007</v>
-      </c>
       <c r="H6" s="1">
-        <v>51272.9077</v>
+        <v>41324.8038</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>10.5804</v>
+        <v>41324.8038</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10.502</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51272.9077</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0175</v>
+        <v>-0.0217</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>11.6267</v>
       </c>
+      <c r="E7" s="1">
+        <v>4725.7007</v>
+      </c>
       <c r="F7" s="1">
         <v>860.0893</v>
       </c>
-      <c r="G7" s="1">
-        <v>5585.79</v>
-      </c>
       <c r="H7" s="1">
-        <v>64606.9228</v>
+        <v>54658.8722</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>10.7415</v>
+        <v>54658.8722</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>10.5804</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>64606.9228</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0544</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>12.3095</v>
       </c>
+      <c r="E8" s="1">
+        <v>5585.79</v>
+      </c>
       <c r="F8" s="1">
         <v>812.3807</v>
       </c>
-      <c r="G8" s="1">
-        <v>6398.1707</v>
-      </c>
       <c r="H8" s="1">
-        <v>78349.4388</v>
+        <v>68401.35000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>10.9406</v>
+        <v>68401.35000000001</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>10.7415</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>78349.4388</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0502</v>
+        <v>0.0579</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>13.3876</v>
       </c>
+      <c r="E9" s="1">
+        <v>6398.1707</v>
+      </c>
       <c r="F9" s="1">
         <v>746.9598999999999</v>
       </c>
-      <c r="G9" s="1">
-        <v>7145.1306</v>
-      </c>
       <c r="H9" s="1">
-        <v>95160.27770000001</v>
+        <v>85212.1167</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>11.1964</v>
+        <v>85212.1167</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>10.9406</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>95160.27770000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0771</v>
+        <v>0.08690000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>13.3141</v>
       </c>
+      <c r="E10" s="1">
+        <v>7145.1306</v>
+      </c>
       <c r="F10" s="1">
         <v>751.0834</v>
       </c>
-      <c r="G10" s="1">
-        <v>7896.214</v>
-      </c>
       <c r="H10" s="1">
-        <v>104585.3543</v>
+        <v>94637.25410000001</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>11.3979</v>
+        <v>94637.25410000001</v>
       </c>
       <c r="K10" s="1">
+        <v>80000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>11.1964</v>
+      </c>
+      <c r="M10" s="1">
         <v>0.6</v>
       </c>
-      <c r="L10" s="1">
-        <v>3858.3705</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-6141.6295</v>
+        <v>3455.0122</v>
       </c>
       <c r="O10" s="1">
-        <v>3858.3705</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>108443.7248</v>
+        <v>-6544.9878</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0312</v>
+        <v>-0.006</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>13.7208</v>
       </c>
+      <c r="E11" s="1">
+        <v>7896.214</v>
+      </c>
       <c r="F11" s="1">
-        <v>822.5558</v>
-      </c>
-      <c r="G11" s="1">
-        <v>8718.7698</v>
+        <v>812.7566</v>
       </c>
       <c r="H11" s="1">
-        <v>119007.72</v>
+        <v>107780.1625</v>
       </c>
       <c r="I11" s="1">
-        <v>101286.1235</v>
+        <v>3455.0122</v>
       </c>
       <c r="J11" s="1">
-        <v>11.617</v>
+        <v>111235.1746</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91151.6707</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>11.5437</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-11286.1235</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>2572.247</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>121579.967</v>
+        <v>-11151.6707</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0265</v>
+        <v>0.0631</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>14.2021</v>
       </c>
+      <c r="E12" s="1">
+        <v>8708.970600000001</v>
+      </c>
       <c r="F12" s="1">
-        <v>794.6799</v>
-      </c>
-      <c r="G12" s="1">
-        <v>9513.449699999999</v>
+        <v>785.2128</v>
       </c>
       <c r="H12" s="1">
-        <v>134409.8225</v>
+        <v>123043.82</v>
       </c>
       <c r="I12" s="1">
-        <v>112572.247</v>
+        <v>2303.3414</v>
       </c>
       <c r="J12" s="1">
-        <v>11.833</v>
+        <v>125347.1615</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>102303.3414</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>11.7469</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-11286.1235</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>1286.1235</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>135695.946</v>
+        <v>-11151.6707</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0313</v>
+        <v>0.0339</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>13.9876</v>
       </c>
+      <c r="E13" s="1">
+        <v>9494.1834</v>
+      </c>
       <c r="F13" s="1">
-        <v>806.8663</v>
-      </c>
-      <c r="G13" s="1">
-        <v>10320.316</v>
+        <v>797.254</v>
       </c>
       <c r="H13" s="1">
-        <v>143608.2294</v>
+        <v>132112.5112</v>
       </c>
       <c r="I13" s="1">
-        <v>123858.3705</v>
+        <v>1151.6707</v>
       </c>
       <c r="J13" s="1">
-        <v>12.0014</v>
+        <v>133264.182</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>113455.0122</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>11.9499</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-11286.1235</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>143608.2294</v>
+        <v>-11151.6707</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0143</v>
+        <v>-0.0154</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>12.8818</v>
       </c>
+      <c r="E14" s="1">
+        <v>10291.4374</v>
+      </c>
       <c r="F14" s="1">
-        <v>-10320.316</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-9494.1834</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>131884.7707</v>
       </c>
       <c r="I14" s="1">
-        <v>123858.3705</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>12.0014</v>
+        <v>131884.7707</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>113455.0122</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>11.0242</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>132254.8498</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>132254.8498</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>132254.8498</v>
+        <v>121667.9601</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.139</v>
+        <v>-0.0794</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>9.6988</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1031.0554</v>
       </c>
       <c r="G2" s="1">
-        <v>1031.0554</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.034799999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>9.6988</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.034799999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>10.0658</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>1031.0554</v>
       </c>
       <c r="F3" s="1">
         <v>966.2483</v>
       </c>
       <c r="G3" s="1">
-        <v>1997.3036</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10324.4731</v>
       </c>
       <c r="I3" s="1">
-        <v>19726.0617</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9.876300000000001</v>
+        <v>10324.4731</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9726.0617</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>9.4331</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9726.0617</v>
       </c>
-      <c r="O3" s="1">
-        <v>273.9383</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20273.9383</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0163</v>
+        <v>0.0324</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>11.2848</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1997.3036</v>
       </c>
       <c r="F4" s="1">
         <v>674.9927</v>
       </c>
       <c r="G4" s="1">
-        <v>2672.2963</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>22422.3299</v>
       </c>
       <c r="I4" s="1">
-        <v>27343.2189</v>
+        <v>273.9383</v>
       </c>
       <c r="J4" s="1">
-        <v>10.2321</v>
+        <v>22696.2682</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>17343.2189</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>8.683299999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-7617.1572</v>
       </c>
-      <c r="O4" s="1">
-        <v>2656.7811</v>
-      </c>
-      <c r="P4" s="1">
-        <v>32656.7811</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.07870000000000001</v>
+        <v>0.1167</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>11.1341</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>2672.2963</v>
       </c>
       <c r="F5" s="1">
         <v>938.9853000000001</v>
       </c>
       <c r="G5" s="1">
-        <v>3611.2816</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>29599.4228</v>
       </c>
       <c r="I5" s="1">
-        <v>37797.9755</v>
+        <v>2656.7811</v>
       </c>
       <c r="J5" s="1">
-        <v>10.4666</v>
+        <v>32256.2039</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27797.9755</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>10.4023</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10454.7567</v>
       </c>
-      <c r="O5" s="1">
-        <v>2202.0245</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42202.0245</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0107</v>
+        <v>-0.0135</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>10.9064</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>3611.2816</v>
       </c>
       <c r="F6" s="1">
         <v>997.0982</v>
       </c>
       <c r="G6" s="1">
-        <v>4608.3799</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>39181.6836</v>
       </c>
       <c r="I6" s="1">
-        <v>48672.7277</v>
+        <v>2202.0245</v>
       </c>
       <c r="J6" s="1">
-        <v>10.5618</v>
+        <v>41383.708</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38672.7277</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10.7089</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10874.7522</v>
       </c>
-      <c r="O6" s="1">
-        <v>1327.2723</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51327.2723</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0168</v>
+        <v>-0.0206</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>11.6267</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>4608.3799</v>
       </c>
       <c r="F7" s="1">
         <v>579.1045</v>
       </c>
       <c r="G7" s="1">
-        <v>5187.4843</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>53301.9042</v>
       </c>
       <c r="I7" s="1">
-        <v>55405.8014</v>
+        <v>1327.2723</v>
       </c>
       <c r="J7" s="1">
-        <v>10.6807</v>
+        <v>54629.1765</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>45405.8014</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>9.8529</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-6733.0737</v>
       </c>
-      <c r="O7" s="1">
-        <v>4594.1986</v>
-      </c>
-      <c r="P7" s="1">
-        <v>64594.1986</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0533</v>
+        <v>0.06320000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>12.3095</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>5187.4843</v>
       </c>
       <c r="F8" s="1">
         <v>528.8546</v>
       </c>
       <c r="G8" s="1">
-        <v>5716.3389</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>63523.8581</v>
       </c>
       <c r="I8" s="1">
-        <v>61915.7371</v>
+        <v>4594.1986</v>
       </c>
       <c r="J8" s="1">
-        <v>10.8314</v>
+        <v>68118.0567</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>51915.7371</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>10.0079</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-6509.9357</v>
       </c>
-      <c r="O8" s="1">
-        <v>8084.2629</v>
-      </c>
-      <c r="P8" s="1">
-        <v>78084.2629</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0468</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>13.3876</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>5716.3389</v>
       </c>
       <c r="F9" s="1">
         <v>290.4788</v>
       </c>
       <c r="G9" s="1">
-        <v>6006.8177</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>76131.34510000001</v>
       </c>
       <c r="I9" s="1">
-        <v>65804.5512</v>
+        <v>8084.2629</v>
       </c>
       <c r="J9" s="1">
-        <v>10.955</v>
+        <v>84215.60799999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>55804.5512</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>9.7623</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-3888.8141</v>
       </c>
-      <c r="O9" s="1">
-        <v>14195.4488</v>
-      </c>
-      <c r="P9" s="1">
-        <v>94195.4488</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0694</v>
+        <v>0.0781</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>13.3141</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>6006.8177</v>
       </c>
       <c r="F10" s="1">
         <v>788.1992</v>
       </c>
       <c r="G10" s="1">
-        <v>6795.017</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>79560.3009</v>
       </c>
       <c r="I10" s="1">
-        <v>76298.71490000001</v>
+        <v>14195.4488</v>
       </c>
       <c r="J10" s="1">
-        <v>11.2286</v>
+        <v>93755.7497</v>
       </c>
       <c r="K10" s="1">
+        <v>66298.71490000001</v>
+      </c>
+      <c r="L10" s="1">
+        <v>11.0372</v>
+      </c>
+      <c r="M10" s="1">
         <v>0.6</v>
       </c>
-      <c r="L10" s="1">
-        <v>3243.6816</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-7250.482</v>
+        <v>3086.823</v>
       </c>
       <c r="O10" s="1">
-        <v>16944.9667</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>106944.9667</v>
+        <v>-7407.3406</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0264</v>
+        <v>-0.0049</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>13.7208</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>6795.017</v>
       </c>
       <c r="F11" s="1">
         <v>531.205</v>
       </c>
       <c r="G11" s="1">
-        <v>7326.222</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>92749.26390000001</v>
       </c>
       <c r="I11" s="1">
-        <v>83587.27280000001</v>
+        <v>16788.1082</v>
       </c>
       <c r="J11" s="1">
-        <v>11.4093</v>
+        <v>109537.372</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>73587.27280000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>10.8296</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-7288.5579</v>
       </c>
-      <c r="O11" s="1">
-        <v>19656.4088</v>
-      </c>
-      <c r="P11" s="1">
-        <v>119656.4088</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0232</v>
+        <v>0.0557</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>14.2021</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>7326.222</v>
       </c>
       <c r="F12" s="1">
         <v>459.5145</v>
       </c>
       <c r="G12" s="1">
-        <v>7785.7365</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>103507.7951</v>
       </c>
       <c r="I12" s="1">
-        <v>90113.34390000001</v>
+        <v>19499.5502</v>
       </c>
       <c r="J12" s="1">
-        <v>11.5742</v>
+        <v>123007.3453</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>80113.34390000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>10.9352</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-6526.0711</v>
       </c>
-      <c r="O12" s="1">
-        <v>23130.3377</v>
-      </c>
-      <c r="P12" s="1">
-        <v>133130.3377</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0268</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>13.9876</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>7785.7365</v>
       </c>
       <c r="F13" s="1">
         <v>837.9888</v>
       </c>
       <c r="G13" s="1">
-        <v>8623.7253</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>108339.3024</v>
       </c>
       <c r="I13" s="1">
-        <v>101834.7957</v>
+        <v>22973.4791</v>
       </c>
       <c r="J13" s="1">
-        <v>11.8087</v>
+        <v>131312.7815</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>91834.7957</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>11.7953</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-11721.4518</v>
       </c>
-      <c r="O13" s="1">
-        <v>21408.8859</v>
-      </c>
-      <c r="P13" s="1">
-        <v>141408.8859</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.012</v>
+        <v>-0.0127</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>12.8818</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8623.7253</v>
       </c>
       <c r="F14" s="1">
         <v>-8623.7253</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>110513.0398</v>
       </c>
       <c r="I14" s="1">
-        <v>101834.7957</v>
+        <v>21252.0273</v>
       </c>
       <c r="J14" s="1">
-        <v>11.8087</v>
+        <v>131765.0671</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>91834.7957</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>10.6491</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>110513.0398</v>
       </c>
-      <c r="O14" s="1">
-        <v>131921.9257</v>
-      </c>
-      <c r="P14" s="1">
-        <v>131921.9257</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.1287</v>
+        <v>-0.06759999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>9.6988</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1031.0554</v>
       </c>
       <c r="G2" s="1">
-        <v>1031.0554</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.034799999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>9.6988</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.034799999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>10.0658</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>1031.0554</v>
       </c>
       <c r="F3" s="1">
         <v>971.2415</v>
       </c>
       <c r="G3" s="1">
-        <v>2002.2969</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10324.4731</v>
       </c>
       <c r="I3" s="1">
-        <v>19776.3228</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9.876799999999999</v>
+        <v>10324.4731</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9776.3228</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>9.4819</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9776.3228</v>
       </c>
-      <c r="O3" s="1">
-        <v>223.6772</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20273.6772</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0163</v>
+        <v>0.0324</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>11.2848</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>2002.2969</v>
       </c>
       <c r="F4" s="1">
         <v>683.3832</v>
       </c>
       <c r="G4" s="1">
-        <v>2685.6801</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>22478.3857</v>
       </c>
       <c r="I4" s="1">
-        <v>27488.165</v>
+        <v>223.6772</v>
       </c>
       <c r="J4" s="1">
-        <v>10.2351</v>
+        <v>22702.0629</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>17488.165</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>8.7341</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-7711.8422</v>
       </c>
-      <c r="O4" s="1">
-        <v>2511.835</v>
-      </c>
-      <c r="P4" s="1">
-        <v>32662.085</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0789</v>
+        <v>0.117</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>11.1341</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>2685.6801</v>
       </c>
       <c r="F5" s="1">
         <v>952.7766</v>
       </c>
       <c r="G5" s="1">
-        <v>3638.4567</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>29747.6666</v>
       </c>
       <c r="I5" s="1">
-        <v>38096.4749</v>
+        <v>2511.835</v>
       </c>
       <c r="J5" s="1">
-        <v>10.4705</v>
+        <v>32259.5015</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28096.4749</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>10.4616</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10608.3099</v>
       </c>
-      <c r="O5" s="1">
-        <v>1903.5251</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42204.5263</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0107</v>
+        <v>-0.0135</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>10.9064</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>3638.4567</v>
       </c>
       <c r="F6" s="1">
         <v>1016.238</v>
       </c>
       <c r="G6" s="1">
-        <v>4654.6947</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>39476.527</v>
       </c>
       <c r="I6" s="1">
-        <v>49179.9733</v>
+        <v>1903.5251</v>
       </c>
       <c r="J6" s="1">
-        <v>10.5657</v>
+        <v>41380.052</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39179.9733</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10.7683</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-11083.4984</v>
       </c>
-      <c r="O6" s="1">
-        <v>820.0267</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51322.533</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0169</v>
+        <v>-0.0208</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>11.6267</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>4654.6947</v>
       </c>
       <c r="F7" s="1">
         <v>598.0671</v>
       </c>
       <c r="G7" s="1">
-        <v>5252.7618</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>53837.595</v>
       </c>
       <c r="I7" s="1">
-        <v>56133.5203</v>
+        <v>820.0267</v>
       </c>
       <c r="J7" s="1">
-        <v>10.6865</v>
+        <v>54657.6217</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>46133.5203</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>9.911199999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-6953.5471</v>
       </c>
-      <c r="O7" s="1">
-        <v>3866.4797</v>
-      </c>
-      <c r="P7" s="1">
-        <v>64621.4984</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0538</v>
+        <v>0.0638</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>12.3095</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>5252.7618</v>
       </c>
       <c r="F8" s="1">
         <v>550.0403</v>
       </c>
       <c r="G8" s="1">
-        <v>5802.8021</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>64323.2199</v>
       </c>
       <c r="I8" s="1">
-        <v>62904.2419</v>
+        <v>3866.4797</v>
       </c>
       <c r="J8" s="1">
-        <v>10.8403</v>
+        <v>68189.6995</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>52904.2419</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>10.0717</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-6770.7216</v>
       </c>
-      <c r="O8" s="1">
-        <v>7095.7581</v>
-      </c>
-      <c r="P8" s="1">
-        <v>78154.552</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0473</v>
+        <v>0.0546</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>13.3876</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>5802.8021</v>
       </c>
       <c r="F9" s="1">
         <v>310.1927</v>
       </c>
       <c r="G9" s="1">
-        <v>6112.9948</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>77282.8795</v>
       </c>
       <c r="I9" s="1">
-        <v>67056.9777</v>
+        <v>7095.7581</v>
       </c>
       <c r="J9" s="1">
-        <v>10.9696</v>
+        <v>84378.6375</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>57056.9777</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>9.832700000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-4152.7358</v>
       </c>
-      <c r="O9" s="1">
-        <v>12943.0223</v>
-      </c>
-      <c r="P9" s="1">
-        <v>94357.1102</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0704</v>
+        <v>0.07920000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>13.3141</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>6112.9948</v>
       </c>
       <c r="F10" s="1">
         <v>819.5199</v>
       </c>
       <c r="G10" s="1">
-        <v>6932.5148</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>80966.61659999999</v>
       </c>
       <c r="I10" s="1">
-        <v>77968.1482</v>
+        <v>12943.0223</v>
       </c>
       <c r="J10" s="1">
-        <v>11.2467</v>
+        <v>93909.63890000001</v>
       </c>
       <c r="K10" s="1">
+        <v>67968.1482</v>
+      </c>
+      <c r="L10" s="1">
+        <v>11.1186</v>
+      </c>
+      <c r="M10" s="1">
         <v>0.6</v>
       </c>
-      <c r="L10" s="1">
-        <v>3301.0172</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-7610.1533</v>
+        <v>3133.5132</v>
       </c>
       <c r="O10" s="1">
-        <v>15332.869</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>107154.0273</v>
+        <v>-7777.6573</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0268</v>
+        <v>-0.005</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>13.7208</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>6932.5148</v>
       </c>
       <c r="F11" s="1">
         <v>560.7644</v>
       </c>
       <c r="G11" s="1">
-        <v>7493.2792</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>94626.05379999999</v>
       </c>
       <c r="I11" s="1">
-        <v>85662.2849</v>
+        <v>15165.365</v>
       </c>
       <c r="J11" s="1">
-        <v>11.4319</v>
+        <v>109791.4187</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>75662.2849</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>10.9141</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-7694.1367</v>
       </c>
-      <c r="O11" s="1">
-        <v>17638.7323</v>
-      </c>
-      <c r="P11" s="1">
-        <v>119918.9964</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0236</v>
+        <v>0.0566</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>14.2021</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>7493.2792</v>
       </c>
       <c r="F12" s="1">
         <v>490.0498</v>
       </c>
       <c r="G12" s="1">
-        <v>7983.329</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>105868.0462</v>
       </c>
       <c r="I12" s="1">
-        <v>92622.0208</v>
+        <v>17471.2282</v>
       </c>
       <c r="J12" s="1">
-        <v>11.6019</v>
+        <v>123339.2744</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>82622.0208</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>11.0262</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-6959.7359</v>
       </c>
-      <c r="O12" s="1">
-        <v>20678.9964</v>
-      </c>
-      <c r="P12" s="1">
-        <v>133470.6618</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0273</v>
+        <v>0.0296</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>13.9876</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>7983.329</v>
       </c>
       <c r="F13" s="1">
         <v>881.5461</v>
       </c>
       <c r="G13" s="1">
-        <v>8864.875099999999</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>111088.8213</v>
       </c>
       <c r="I13" s="1">
-        <v>104952.7353</v>
+        <v>20511.4923</v>
       </c>
       <c r="J13" s="1">
-        <v>11.8392</v>
+        <v>131600.3137</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>94952.7353</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>11.8939</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-12330.7145</v>
       </c>
-      <c r="O13" s="1">
-        <v>18348.2819</v>
-      </c>
-      <c r="P13" s="1">
-        <v>141703.9056</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0123</v>
+        <v>-0.013</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>12.8818</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8864.875099999999</v>
       </c>
       <c r="F14" s="1">
         <v>-8864.875099999999</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>113603.3746</v>
       </c>
       <c r="I14" s="1">
-        <v>104952.7353</v>
+        <v>18180.7778</v>
       </c>
       <c r="J14" s="1">
-        <v>11.8392</v>
+        <v>131784.1525</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>94952.7353</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>10.7111</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>113603.3746</v>
       </c>
-      <c r="O14" s="1">
-        <v>131951.6565</v>
-      </c>
-      <c r="P14" s="1">
-        <v>131951.6565</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.1302</v>
+        <v>-0.0693</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>9.6988</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1031.0554</v>
       </c>
       <c r="G2" s="1">
-        <v>1031.0554</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.034799999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>9.6988</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.034799999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>10.0658</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>1031.0554</v>
       </c>
       <c r="F3" s="1">
         <v>976.2348</v>
       </c>
       <c r="G3" s="1">
-        <v>2007.2902</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10324.4731</v>
       </c>
       <c r="I3" s="1">
-        <v>19826.5839</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9.8773</v>
+        <v>10324.4731</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9826.5839</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>9.5306</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9826.5839</v>
       </c>
-      <c r="O3" s="1">
-        <v>173.4161</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20273.4161</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0163</v>
+        <v>0.0324</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>11.2848</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>2007.2902</v>
       </c>
       <c r="F4" s="1">
         <v>691.8182</v>
       </c>
       <c r="G4" s="1">
-        <v>2699.1083</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>22534.4415</v>
       </c>
       <c r="I4" s="1">
-        <v>27633.6138</v>
+        <v>173.4161</v>
       </c>
       <c r="J4" s="1">
-        <v>10.2381</v>
+        <v>22707.8576</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>17633.6138</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>8.784800000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-7807.0299</v>
       </c>
-      <c r="O4" s="1">
-        <v>2366.3862</v>
-      </c>
-      <c r="P4" s="1">
-        <v>32667.3862</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0791</v>
+        <v>0.1173</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>11.1341</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>2699.1083</v>
       </c>
       <c r="F5" s="1">
         <v>966.7046</v>
       </c>
       <c r="G5" s="1">
-        <v>3665.8129</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>29896.4037</v>
       </c>
       <c r="I5" s="1">
-        <v>38396.999</v>
+        <v>2366.3862</v>
       </c>
       <c r="J5" s="1">
-        <v>10.4743</v>
+        <v>32262.7899</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28396.999</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>10.5209</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10763.3852</v>
       </c>
-      <c r="O5" s="1">
-        <v>1603.001</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42207.011</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0108</v>
+        <v>-0.0136</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>10.9064</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>3665.8129</v>
       </c>
       <c r="F6" s="1">
         <v>1035.6609</v>
       </c>
       <c r="G6" s="1">
-        <v>4701.4738</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>39773.3368</v>
       </c>
       <c r="I6" s="1">
-        <v>49692.3307</v>
+        <v>1603.001</v>
       </c>
       <c r="J6" s="1">
-        <v>10.5695</v>
+        <v>41376.3378</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39692.3307</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10.8277</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-11295.3317</v>
       </c>
-      <c r="O6" s="1">
-        <v>307.6693</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51317.7194</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.017</v>
+        <v>-0.021</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>11.6267</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>4701.4738</v>
       </c>
       <c r="F7" s="1">
         <v>617.4399</v>
       </c>
       <c r="G7" s="1">
-        <v>5318.9136</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>54378.6561</v>
       </c>
       <c r="I7" s="1">
-        <v>56871.1186</v>
+        <v>307.6693</v>
       </c>
       <c r="J7" s="1">
-        <v>10.6922</v>
+        <v>54686.3253</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>46871.1186</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>9.9695</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-7178.7879</v>
       </c>
-      <c r="O7" s="1">
-        <v>3128.8814</v>
-      </c>
-      <c r="P7" s="1">
-        <v>64649.032</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0543</v>
+        <v>0.0644</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>12.3095</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>5318.9136</v>
       </c>
       <c r="F8" s="1">
         <v>571.8024</v>
       </c>
       <c r="G8" s="1">
-        <v>5890.716</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>65133.2886</v>
       </c>
       <c r="I8" s="1">
-        <v>63909.7203</v>
+        <v>3128.8814</v>
       </c>
       <c r="J8" s="1">
-        <v>10.8492</v>
+        <v>68262.17</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>53909.7203</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>10.1355</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-7038.6017</v>
       </c>
-      <c r="O8" s="1">
-        <v>6090.2797</v>
-      </c>
-      <c r="P8" s="1">
-        <v>78225.6318</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0479</v>
+        <v>0.0553</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>13.3876</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>5890.716</v>
       </c>
       <c r="F9" s="1">
         <v>330.5981</v>
       </c>
       <c r="G9" s="1">
-        <v>6221.3141</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>78453.7341</v>
       </c>
       <c r="I9" s="1">
-        <v>68335.63529999999</v>
+        <v>6090.2797</v>
       </c>
       <c r="J9" s="1">
-        <v>10.9841</v>
+        <v>84544.0138</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>58335.6353</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>9.903</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-4425.915</v>
       </c>
-      <c r="O9" s="1">
-        <v>11664.3647</v>
-      </c>
-      <c r="P9" s="1">
-        <v>94521.07030000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.07140000000000001</v>
+        <v>0.0803</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>13.3141</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>6221.3141</v>
       </c>
       <c r="F10" s="1">
         <v>851.9417</v>
       </c>
       <c r="G10" s="1">
-        <v>7073.2558</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>82401.3054</v>
       </c>
       <c r="I10" s="1">
-        <v>79678.47169999999</v>
+        <v>11664.3647</v>
       </c>
       <c r="J10" s="1">
-        <v>11.2648</v>
+        <v>94065.6701</v>
       </c>
       <c r="K10" s="1">
+        <v>69678.47169999999</v>
+      </c>
+      <c r="L10" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="M10" s="1">
         <v>0.6</v>
       </c>
-      <c r="L10" s="1">
-        <v>3359.5096</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-7983.3268</v>
+        <v>3180.9867</v>
       </c>
       <c r="O10" s="1">
-        <v>13681.0379</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>107366.3106</v>
+        <v>-8161.8498</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0272</v>
+        <v>-0.0051</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>13.7208</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>7073.2558</v>
       </c>
       <c r="F11" s="1">
         <v>591.5934</v>
       </c>
       <c r="G11" s="1">
-        <v>7664.8492</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>96547.11199999999</v>
       </c>
       <c r="I11" s="1">
-        <v>87795.6066</v>
+        <v>13502.5149</v>
       </c>
       <c r="J11" s="1">
-        <v>11.4543</v>
+        <v>110049.6269</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>77795.6066</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>10.9986</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-8117.1349</v>
       </c>
-      <c r="O11" s="1">
-        <v>15563.903</v>
-      </c>
-      <c r="P11" s="1">
-        <v>120186.0284</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.024</v>
+        <v>0.0575</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>14.2021</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>7664.8492</v>
       </c>
       <c r="F12" s="1">
         <v>522.0897</v>
       </c>
       <c r="G12" s="1">
-        <v>8186.9388</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>108292.0552</v>
       </c>
       <c r="I12" s="1">
-        <v>95210.37609999999</v>
+        <v>15385.38</v>
       </c>
       <c r="J12" s="1">
-        <v>11.6295</v>
+        <v>123677.4352</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>85210.37609999999</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>11.117</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-7414.7695</v>
       </c>
-      <c r="O12" s="1">
-        <v>18149.1335</v>
-      </c>
-      <c r="P12" s="1">
-        <v>133817.4802</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0279</v>
+        <v>0.0302</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>13.9876</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>8186.9388</v>
       </c>
       <c r="F13" s="1">
         <v>927.263</v>
       </c>
       <c r="G13" s="1">
-        <v>9114.201800000001</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>113922.0726</v>
       </c>
       <c r="I13" s="1">
-        <v>108180.5602</v>
+        <v>17970.6106</v>
       </c>
       <c r="J13" s="1">
-        <v>11.8694</v>
+        <v>131892.6832</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>98180.56020000001</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>11.9923</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-12970.1841</v>
       </c>
-      <c r="O13" s="1">
-        <v>15178.9494</v>
-      </c>
-      <c r="P13" s="1">
-        <v>142003.9796</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0126</v>
+        <v>-0.0134</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>12.8818</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>9114.201800000001</v>
       </c>
       <c r="F14" s="1">
         <v>-9114.201800000001</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>116798.4967</v>
       </c>
       <c r="I14" s="1">
-        <v>108180.5602</v>
+        <v>15000.4265</v>
       </c>
       <c r="J14" s="1">
-        <v>11.8694</v>
+        <v>131798.9232</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>98180.56020000001</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>10.7723</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>116798.4967</v>
       </c>
-      <c r="O14" s="1">
-        <v>131977.4461</v>
-      </c>
-      <c r="P14" s="1">
-        <v>131977.4461</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.1318</v>
+        <v>-0.0711</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>9.6988</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1031.0554</v>
       </c>
       <c r="G2" s="1">
-        <v>1031.0554</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.034799999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>9.6988</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.034799999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>10.0658</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>1031.0554</v>
       </c>
       <c r="F3" s="1">
         <v>981.228</v>
       </c>
       <c r="G3" s="1">
-        <v>2012.2834</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10324.4731</v>
       </c>
       <c r="I3" s="1">
-        <v>19876.8451</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9.877800000000001</v>
+        <v>10324.4731</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9876.8451</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>9.5794</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9876.8451</v>
       </c>
-      <c r="O3" s="1">
-        <v>123.1549</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20273.1549</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0163</v>
+        <v>0.0324</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>11.2848</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>2012.2834</v>
       </c>
       <c r="F4" s="1">
         <v>700.2978000000001</v>
       </c>
       <c r="G4" s="1">
-        <v>2712.5812</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>22590.4973</v>
       </c>
       <c r="I4" s="1">
-        <v>27779.5652</v>
+        <v>123.1549</v>
       </c>
       <c r="J4" s="1">
-        <v>10.241</v>
+        <v>22713.6522</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>17779.5652</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>8.8355</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-7902.7201</v>
       </c>
-      <c r="O4" s="1">
-        <v>2220.4348</v>
-      </c>
-      <c r="P4" s="1">
-        <v>32672.6848</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0793</v>
+        <v>0.1176</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>11.1341</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>2712.5812</v>
       </c>
       <c r="F5" s="1">
         <v>980.7699</v>
       </c>
       <c r="G5" s="1">
-        <v>3693.3511</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>30045.6341</v>
       </c>
       <c r="I5" s="1">
-        <v>38699.5553</v>
+        <v>2220.4348</v>
       </c>
       <c r="J5" s="1">
-        <v>10.4782</v>
+        <v>32266.0689</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28699.5553</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>10.5802</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10919.9901</v>
       </c>
-      <c r="O5" s="1">
-        <v>1300.4447</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42209.4785</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0109</v>
+        <v>-0.0137</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>10.9064</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>3693.3511</v>
       </c>
       <c r="F6" s="1">
         <v>1036.1297</v>
       </c>
       <c r="G6" s="1">
-        <v>4729.4807</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51313.9202</v>
+        <v>40072.1204</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>1300.4447</v>
       </c>
       <c r="J6" s="1">
-        <v>10.572</v>
+        <v>41372.5651</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10.8303</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-11300.4447</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51313.9202</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0172</v>
+        <v>-0.0211</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>11.6267</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>4729.4807</v>
       </c>
       <c r="F7" s="1">
         <v>656.4689</v>
       </c>
       <c r="G7" s="1">
-        <v>5385.9496</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>54702.5931</v>
       </c>
       <c r="I7" s="1">
-        <v>57632.5669</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>10.7005</v>
+        <v>54702.5931</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>47632.5669</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>10.0714</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-7632.5669</v>
       </c>
-      <c r="O7" s="1">
-        <v>2367.4331</v>
-      </c>
-      <c r="P7" s="1">
-        <v>64662.9424</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0546</v>
+        <v>0.0648</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>12.3095</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>5385.9496</v>
       </c>
       <c r="F8" s="1">
         <v>594.1528</v>
       </c>
       <c r="G8" s="1">
-        <v>5980.1024</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>65954.18489999999</v>
       </c>
       <c r="I8" s="1">
-        <v>64946.2903</v>
+        <v>2367.4331</v>
       </c>
       <c r="J8" s="1">
-        <v>10.8604</v>
+        <v>68321.618</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>54946.2903</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>10.2018</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-7313.7234</v>
       </c>
-      <c r="O8" s="1">
-        <v>5053.7097</v>
-      </c>
-      <c r="P8" s="1">
-        <v>78283.6516</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0485</v>
+        <v>0.0559</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>13.3876</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>5980.1024</v>
       </c>
       <c r="F9" s="1">
         <v>351.7135</v>
       </c>
       <c r="G9" s="1">
-        <v>6331.8159</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>84328.39109999999</v>
+        <v>79644.1998</v>
       </c>
       <c r="I9" s="1">
-        <v>69654.89049999999</v>
+        <v>5053.7097</v>
       </c>
       <c r="J9" s="1">
-        <v>11.0008</v>
+        <v>84697.90949999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>59654.8905</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>9.9756</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-4708.6002</v>
       </c>
-      <c r="O9" s="1">
-        <v>10345.1095</v>
-      </c>
-      <c r="P9" s="1">
-        <v>94673.5006</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.07240000000000001</v>
+        <v>0.0814</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>13.3141</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>6331.8159</v>
       </c>
       <c r="F10" s="1">
         <v>885.4974999999999</v>
       </c>
       <c r="G10" s="1">
-        <v>7217.3135</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>95593.31690000001</v>
+        <v>83864.90210000001</v>
       </c>
       <c r="I10" s="1">
-        <v>81444.4932</v>
+        <v>10345.1095</v>
       </c>
       <c r="J10" s="1">
-        <v>11.2846</v>
+        <v>94210.0116</v>
       </c>
       <c r="K10" s="1">
+        <v>71444.4932</v>
+      </c>
+      <c r="L10" s="1">
+        <v>11.2834</v>
+      </c>
+      <c r="M10" s="1">
         <v>0.6</v>
       </c>
-      <c r="L10" s="1">
-        <v>3419.1806</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-8370.4221</v>
+        <v>3229.2553</v>
       </c>
       <c r="O10" s="1">
-        <v>11974.6874</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>107568.0044</v>
+        <v>-8560.347400000001</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0277</v>
+        <v>-0.0052</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>13.7208</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>7217.3135</v>
       </c>
       <c r="F11" s="1">
         <v>623.7380000000001</v>
       </c>
       <c r="G11" s="1">
-        <v>7841.0515</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>107027.2167</v>
+        <v>98513.442</v>
       </c>
       <c r="I11" s="1">
-        <v>90002.6781</v>
+        <v>11784.7621</v>
       </c>
       <c r="J11" s="1">
-        <v>11.4784</v>
+        <v>110298.2041</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>80002.6781</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>11.0848</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-8558.1849</v>
       </c>
-      <c r="O11" s="1">
-        <v>13416.5026</v>
-      </c>
-      <c r="P11" s="1">
-        <v>120443.7192</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0245</v>
+        <v>0.0584</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>14.2021</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>7841.0515</v>
       </c>
       <c r="F12" s="1">
         <v>555.6972</v>
       </c>
       <c r="G12" s="1">
-        <v>8396.7487</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>118632.6249</v>
+        <v>110781.5121</v>
       </c>
       <c r="I12" s="1">
-        <v>97894.7457</v>
+        <v>13226.5772</v>
       </c>
       <c r="J12" s="1">
-        <v>11.6586</v>
+        <v>124008.0894</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>87894.7457</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>11.2096</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-7892.0677</v>
       </c>
-      <c r="O12" s="1">
-        <v>15524.4349</v>
-      </c>
-      <c r="P12" s="1">
-        <v>134157.0598</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0285</v>
+        <v>0.0308</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>13.9876</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>8396.7487</v>
       </c>
       <c r="F13" s="1">
         <v>975.2367</v>
       </c>
       <c r="G13" s="1">
-        <v>9371.9854</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>130412.1143</v>
+        <v>116841.5984</v>
       </c>
       <c r="I13" s="1">
-        <v>111535.9663</v>
+        <v>15334.5096</v>
       </c>
       <c r="J13" s="1">
-        <v>11.901</v>
+        <v>132176.108</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>101535.9663</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>12.0923</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-13641.2205</v>
       </c>
-      <c r="O13" s="1">
-        <v>11883.2143</v>
-      </c>
-      <c r="P13" s="1">
-        <v>142295.3287</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0129</v>
+        <v>-0.0137</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>12.8818</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>9371.9854</v>
       </c>
       <c r="F14" s="1">
         <v>-9371.9854</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>120101.9931</v>
       </c>
       <c r="I14" s="1">
-        <v>111535.9663</v>
+        <v>11693.289</v>
       </c>
       <c r="J14" s="1">
-        <v>11.901</v>
+        <v>131795.2822</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>101535.9663</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>10.834</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>120101.9931</v>
       </c>
-      <c r="O14" s="1">
-        <v>131985.2075</v>
-      </c>
-      <c r="P14" s="1">
-        <v>131985.2075</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.1334</v>
+        <v>-0.073</v>
       </c>
     </row>
   </sheetData>
@@ -4478,7 +4451,7 @@
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" customWidth="1"/>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>12.8471</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>12.0014</v>
+        <v>11.0242</v>
       </c>
       <c r="D3" s="1">
-        <v>11.8087</v>
+        <v>10.6491</v>
       </c>
       <c r="E3" s="1">
-        <v>11.8392</v>
+        <v>10.7111</v>
       </c>
       <c r="F3" s="1">
-        <v>11.8694</v>
+        <v>10.7723</v>
       </c>
       <c r="G3" s="1">
-        <v>11.901</v>
+        <v>10.834</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.3035</v>
       </c>
       <c r="C4" s="3">
-        <v>0.184</v>
+        <v>0.3199</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1727</v>
+        <v>0.3098</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1743</v>
+        <v>0.3115</v>
       </c>
       <c r="F4" s="3">
-        <v>0.1759</v>
+        <v>0.3133</v>
       </c>
       <c r="G4" s="3">
-        <v>0.1774</v>
+        <v>0.3148</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1821</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1944</v>
+        <v>0.1845</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1813</v>
+        <v>0.1702</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1832</v>
+        <v>0.1722</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1852</v>
+        <v>0.1743</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1872</v>
+        <v>0.1764</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.5546</v>
       </c>
       <c r="C6" s="4">
-        <v>0.842</v>
+        <v>1.6244</v>
       </c>
       <c r="D6" s="4">
-        <v>0.8404</v>
+        <v>1.7006</v>
       </c>
       <c r="E6" s="4">
-        <v>0.8405</v>
+        <v>1.6908</v>
       </c>
       <c r="F6" s="4">
-        <v>0.8403</v>
+        <v>1.6806</v>
       </c>
       <c r="G6" s="4">
-        <v>0.8389</v>
+        <v>1.6692</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1957</v>
+        <v>0.026</v>
       </c>
       <c r="D7" s="3">
-        <v>0.221</v>
+        <v>0.2178</v>
       </c>
       <c r="E7" s="3">
-        <v>0.2173</v>
+        <v>0.2139</v>
       </c>
       <c r="F7" s="3">
-        <v>0.2135</v>
+        <v>0.21</v>
       </c>
       <c r="G7" s="3">
-        <v>0.2095</v>
+        <v>0.2059</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>3858.3705</v>
+        <v>3455.0122</v>
       </c>
       <c r="D8" s="1">
-        <v>3243.6816</v>
+        <v>3086.823</v>
       </c>
       <c r="E8" s="1">
-        <v>3301.0172</v>
+        <v>3133.5132</v>
       </c>
       <c r="F8" s="1">
-        <v>3359.5096</v>
+        <v>3180.9867</v>
       </c>
       <c r="G8" s="1">
-        <v>3419.1806</v>
+        <v>3229.2553</v>
       </c>
     </row>
   </sheetData>
